--- a/config_ios提审/game_enter_btn_config.xlsx
+++ b/config_ios提审/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="179">
   <si>
     <t>id|行号</t>
   </si>
@@ -802,6 +802,18 @@
   </si>
   <si>
     <t>43#40#26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by_pms",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1593,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1621,6 +1633,17 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1633,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1667,13 +1690,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" activeCellId="1" sqref="E62 E64"/>
+      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2772,6 +2795,23 @@
       </c>
       <c r="E64" s="6" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios提审/game_enter_btn_config.xlsx
+++ b/config_ios提审/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -797,10 +797,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3#2#8#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>43#40#26</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -814,6 +810,10 @@
   </si>
   <si>
     <t>64#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#8#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1632,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1643,7 +1643,7 @@
         <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2802,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3082,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3121,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>

--- a/config_ios提审/game_enter_btn_config.xlsx
+++ b/config_ios提审/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -781,10 +781,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>26#36#58#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"vip",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -814,6 +810,10 @@
   </si>
   <si>
     <t>3#8#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26#36#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1632,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1643,7 +1643,7 @@
         <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1692,11 +1692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
@@ -2224,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
         <v>30</v>
@@ -2703,7 +2703,7 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -2802,7 +2802,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3082,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3121,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>155</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -3371,7 +3371,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">

--- a/config_ios提审/game_enter_btn_config.xlsx
+++ b/config_ios提审/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
   <si>
     <t>id|行号</t>
   </si>
@@ -777,10 +777,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新版新人红包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_by_pms",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1158,7 +1154,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>85#36#58#30#</t>
+    <t>85#36#26#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1660,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1992,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2006,7 +2002,7 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2014,10 +2010,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2025,13 +2021,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2039,10 +2035,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2051,10 +2047,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2084,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2098,7 +2094,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2106,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2116,10 +2112,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,10 +2123,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2138,10 +2134,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,10 +2145,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2160,10 +2156,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2176,11 +2172,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2215,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -2249,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -2538,7 +2534,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2708,7 +2704,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3286,7 +3282,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3295,7 +3291,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3303,7 +3299,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3312,7 +3308,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3320,7 +3316,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3329,7 +3325,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3337,7 +3333,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3346,7 +3342,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3354,7 +3350,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3363,7 +3359,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3371,7 +3367,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3380,7 +3376,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3388,7 +3384,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3397,7 +3393,7 @@
         <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3405,7 +3401,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3414,7 +3410,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3422,7 +3418,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3431,7 +3427,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3439,7 +3435,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3448,7 +3444,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3456,7 +3452,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3465,7 +3461,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3473,7 +3469,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3482,7 +3478,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3490,7 +3486,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3499,7 +3495,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3507,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3516,7 +3512,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3524,7 +3520,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3533,7 +3529,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3541,7 +3537,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3550,7 +3546,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3558,7 +3554,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3567,7 +3563,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3575,7 +3571,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3584,7 +3580,7 @@
         <v>81</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3592,7 +3588,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3601,7 +3597,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3609,7 +3605,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3618,7 +3614,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3626,7 +3622,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3635,7 +3631,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3643,7 +3639,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3652,7 +3648,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3917,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3932,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3976,10 +3972,12 @@
         <v>167</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
+        <f>'all_enter|所有按钮入口'!D2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E2</f>
+        <v>快乐礼包</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3990,13 +3988,15 @@
         <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="6">
+        <f>'all_enter|所有按钮入口'!D3</f>
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
+      <c r="E3" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E3</f>
+        <v>大厅vip专享</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4011,13 +4011,15 @@
         <v>155</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" s="6">
+        <f>'all_enter|所有按钮入口'!D4</f>
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
+      <c r="E4" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E4</f>
+        <v>幸运抽奖</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4029,10 +4031,12 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
+        <f>'all_enter|所有按钮入口'!D5</f>
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
+      <c r="E5" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E5</f>
+        <v>分享</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -4047,10 +4051,12 @@
         <v>95</v>
       </c>
       <c r="D6" s="6">
+        <f>'all_enter|所有按钮入口'!D6</f>
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
+      <c r="E6" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E6</f>
+        <v>新人红包</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4058,549 +4064,842 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="6">
+        <f>'all_enter|所有按钮入口'!D7</f>
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
+      <c r="E7" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E7</f>
+        <v>大厅千元赛</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
+        <f>'all_enter|所有按钮入口'!D8</f>
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
+      <c r="E8" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E8</f>
+        <v>首充礼包</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
+        <f>'all_enter|所有按钮入口'!D9</f>
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
+      <c r="E9" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E9</f>
+        <v>鲸鱼福利</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="D10" s="6">
+        <f>'all_enter|所有按钮入口'!D10</f>
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
+      <c r="E10" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E10</f>
+        <v>限时福利</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
+        <f>'all_enter|所有按钮入口'!D11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
+      <c r="E11" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E11</f>
+        <v>月卡</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D12" s="6">
+        <f>'all_enter|所有按钮入口'!D12</f>
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
+      <c r="E12" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E12</f>
+        <v>节日扩展活动</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="6">
+        <f>'all_enter|所有按钮入口'!D13</f>
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
+      <c r="E13" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E13</f>
+        <v>幸运降临</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D14" s="6">
+        <f>'all_enter|所有按钮入口'!D14</f>
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
+      <c r="E14" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E14</f>
+        <v>消消乐水果排行榜</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="6">
+        <f>'all_enter|所有按钮入口'!D15</f>
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>37</v>
+      <c r="E15" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E15</f>
+        <v>水浒消消乐每日任务</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="6">
+        <f>'all_enter|所有按钮入口'!D16</f>
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
+      <c r="E16" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E16</f>
+        <v>水果消消乐每日任务</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="6">
+        <f>'all_enter|所有按钮入口'!D17</f>
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
+      <c r="E17" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E17</f>
+        <v>新人专属</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="6">
+        <f>'all_enter|所有按钮入口'!D18</f>
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
+      <c r="E18" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E18</f>
+        <v>捕鱼达人榜</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="6">
+        <f>'all_enter|所有按钮入口'!D19</f>
         <v>18</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>46</v>
+      <c r="E19" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E19</f>
+        <v>千元赛提示</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="6">
+        <f>'all_enter|所有按钮入口'!D20</f>
         <v>19</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>51</v>
+      <c r="E20" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E20</f>
+        <v>捕鱼比赛提示</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="6">
+        <f>'all_enter|所有按钮入口'!D21</f>
         <v>20</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>55</v>
+      <c r="E21" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E21</f>
+        <v>捕鱼门票</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="6">
+        <f>'all_enter|所有按钮入口'!D22</f>
         <v>21</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
+      <c r="E22" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E22</f>
+        <v>感恩有礼</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="6">
+        <f>'all_enter|所有按钮入口'!D23</f>
         <v>22</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>64</v>
+      <c r="E23" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E23</f>
+        <v>雪球大作战</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="6">
+        <f>'all_enter|所有按钮入口'!D24</f>
         <v>23</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>81</v>
+      <c r="E24" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E24</f>
+        <v>推广礼包</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="6">
+        <f>'all_enter|所有按钮入口'!D25</f>
         <v>24</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>68</v>
+      <c r="E25" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E25</f>
+        <v>疯狂双12</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="6">
+        <f>'all_enter|所有按钮入口'!D26</f>
         <v>25</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>67</v>
+      <c r="E26" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E26</f>
+        <v>财神模式</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="6">
+        <f>'all_enter|所有按钮入口'!D27</f>
         <v>26</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>169</v>
+      <c r="E27" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E27</f>
+        <v>新版新人红包</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="6">
+        <f>'all_enter|所有按钮入口'!D28</f>
         <v>27</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>77</v>
+      <c r="E28" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E28</f>
+        <v>新版1元礼包</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="6">
+        <f>'all_enter|所有按钮入口'!D29</f>
         <v>28</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>69</v>
+      <c r="E29" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E29</f>
+        <v>圣诞敲敲乐</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="6">
+        <f>'all_enter|所有按钮入口'!D30</f>
         <v>29</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>80</v>
+      <c r="E30" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E30</f>
+        <v>全返礼包</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="6">
+        <f>'all_enter|所有按钮入口'!D31</f>
         <v>30</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>166</v>
+      <c r="E31" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E31</f>
+        <v>每日特惠礼包</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="6">
+        <f>'all_enter|所有按钮入口'!D32</f>
         <v>31</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>84</v>
+      <c r="E32" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E32</f>
+        <v>欢庆元旦</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="6">
+        <f>'all_enter|所有按钮入口'!D33</f>
         <v>32</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>88</v>
+      <c r="E33" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E33</f>
+        <v>水浒图标</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="6">
+        <f>'all_enter|所有按钮入口'!D34</f>
         <v>33</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>91</v>
+      <c r="E34" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E34</f>
+        <v>随机鲸币</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="6">
+        <f>'all_enter|所有按钮入口'!D35</f>
         <v>34</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>96</v>
+      <c r="E35" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E35</f>
+        <v>飞-红包</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="6">
+        <f>'all_enter|所有按钮入口'!D36</f>
         <v>35</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>98</v>
+      <c r="E36" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E36</f>
+        <v>浪漫情人节</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="6">
+        <f>'all_enter|所有按钮入口'!D37</f>
         <v>36</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>101</v>
+      <c r="E37" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E37</f>
+        <v>新人七天乐</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="6">
+        <f>'all_enter|所有按钮入口'!D38</f>
         <v>37</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>103</v>
+      <c r="E38" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E38</f>
+        <v>分享拉新</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="6">
+        <f>'all_enter|所有按钮入口'!D39</f>
         <v>38</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>104</v>
+      <c r="E39" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E39</f>
+        <v>龙腾祈福</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="6">
+        <f>'all_enter|所有按钮入口'!D40</f>
         <v>39</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>110</v>
+      <c r="E40" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E40</f>
+        <v>房卡场入口</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="6">
+        <f>'all_enter|所有按钮入口'!D41</f>
         <v>40</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="D42">
+      <c r="E41" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E41</f>
+        <v>幸运彩贝</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="6">
+        <f>'all_enter|所有按钮入口'!D42</f>
         <v>41</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>118</v>
+      <c r="E42" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E42</f>
+        <v>植树礼物</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D43">
+      <c r="D43" s="6">
+        <f>'all_enter|所有按钮入口'!D43</f>
         <v>42</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>120</v>
+      <c r="E43" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E43</f>
+        <v>季卡</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D44">
+      <c r="D44" s="6">
+        <f>'all_enter|所有按钮入口'!D44</f>
         <v>43</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>159</v>
+      <c r="E44" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E44</f>
+        <v>彩金鱼抽奖</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D45">
+      <c r="D45" s="6">
+        <f>'all_enter|所有按钮入口'!D45</f>
         <v>44</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>121</v>
+      <c r="E45" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E45</f>
+        <v>0元礼包</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D46">
+      <c r="D46" s="6">
+        <f>'all_enter|所有按钮入口'!D46</f>
         <v>45</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>123</v>
+      <c r="E46" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E46</f>
+        <v>红包分享</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D47">
+      <c r="D47" s="6">
+        <f>'all_enter|所有按钮入口'!D47</f>
         <v>46</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>125</v>
+      <c r="E47" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E47</f>
+        <v>财神消消乐</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D48">
+      <c r="D48" s="6">
+        <f>'all_enter|所有按钮入口'!D48</f>
         <v>47</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>127</v>
+      <c r="E48" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E48</f>
+        <v>随机领红包</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49">
+      <c r="D49" s="6">
+        <f>'all_enter|所有按钮入口'!D49</f>
         <v>48</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>129</v>
+      <c r="E49" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E49</f>
+        <v>回归惊喜</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D50">
+      <c r="D50" s="6">
+        <f>'all_enter|所有按钮入口'!D50</f>
         <v>49</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>131</v>
+      <c r="E50" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E50</f>
+        <v>水浒消消乐单笔赢金排行榜</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51">
+      <c r="D51" s="6">
+        <f>'all_enter|所有按钮入口'!D51</f>
         <v>50</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>133</v>
+      <c r="E51" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E51</f>
+        <v>疯狂返利</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D52">
+      <c r="D52" s="6">
+        <f>'all_enter|所有按钮入口'!D52</f>
         <v>51</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>135</v>
+      <c r="E52" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E52</f>
+        <v xml:space="preserve"> 抽空调</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53">
+      <c r="D53" s="6">
+        <f>'all_enter|所有按钮入口'!D53</f>
         <v>52</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>137</v>
+      <c r="E53" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E53</f>
+        <v>2D-彩金鱼抽奖</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="6">
+        <f>'all_enter|所有按钮入口'!D54</f>
         <v>53</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>139</v>
+      <c r="E54" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E54</f>
+        <v>3D-彩金鱼抽奖</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D55">
+      <c r="D55" s="6">
+        <f>'all_enter|所有按钮入口'!D55</f>
         <v>54</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>141</v>
+      <c r="E55" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E55</f>
+        <v>连购返利</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D56">
+      <c r="D56" s="6">
+        <f>'all_enter|所有按钮入口'!D56</f>
         <v>55</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>143</v>
+      <c r="E56" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E56</f>
+        <v>免费红包</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D57">
+      <c r="D57" s="6">
+        <f>'all_enter|所有按钮入口'!D57</f>
         <v>56</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>145</v>
+      <c r="E57" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E57</f>
+        <v>幸运彩蛋</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D58">
+      <c r="D58" s="6">
+        <f>'all_enter|所有按钮入口'!D58</f>
         <v>57</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>147</v>
+      <c r="E58" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E58</f>
+        <v>消消乐红包任务</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D59">
+      <c r="D59" s="6">
+        <f>'all_enter|所有按钮入口'!D59</f>
         <v>58</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>149</v>
+      <c r="E59" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E59</f>
+        <v>新首充礼包</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D60">
+      <c r="D60" s="6">
+        <f>'all_enter|所有按钮入口'!D60</f>
         <v>59</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>151</v>
+      <c r="E60" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E60</f>
+        <v>母亲节特惠</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D61">
+      <c r="D61" s="6">
+        <f>'all_enter|所有按钮入口'!D61</f>
         <v>60</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>153</v>
+      <c r="E61" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E61</f>
+        <v>水果消消乐</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D62">
+      <c r="D62" s="6">
+        <f>'all_enter|所有按钮入口'!D62</f>
         <v>61</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>156</v>
+      <c r="E62" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E62</f>
+        <v>存钱罐</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D63">
+      <c r="D63" s="6">
+        <f>'all_enter|所有按钮入口'!D63</f>
         <v>62</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>161</v>
+      <c r="E63" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E63</f>
+        <v>问题反馈</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D64">
+      <c r="D64" s="6">
+        <f>'all_enter|所有按钮入口'!D64</f>
         <v>63</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D83"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D85"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D86"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87"/>
+      <c r="E64" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E64</f>
+        <v>3D捕鱼测试排行榜</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="6">
+        <f>'all_enter|所有按钮入口'!D65</f>
+        <v>64</v>
+      </c>
+      <c r="E65" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E65</f>
+        <v>排名赛</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="6">
+        <f>'all_enter|所有按钮入口'!D66</f>
+        <v>65</v>
+      </c>
+      <c r="E66" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E66</f>
+        <v>3D捕鱼奖池-大厅显示奖池图标</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D67" s="6">
+        <f>'all_enter|所有按钮入口'!D67</f>
+        <v>66</v>
+      </c>
+      <c r="E67" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E67</f>
+        <v>3D捕鱼奖池-3D捕鱼场次选择位置</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="6">
+        <f>'all_enter|所有按钮入口'!D68</f>
+        <v>67</v>
+      </c>
+      <c r="E68" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E68</f>
+        <v>3D捕鱼奖池-4号游戏场显示奖池图标</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="6">
+        <f>'all_enter|所有按钮入口'!D69</f>
+        <v>68</v>
+      </c>
+      <c r="E69" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E69</f>
+        <v>3D捕鱼奖池-5号游戏场显示奖池图标</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="6">
+        <f>'all_enter|所有按钮入口'!D70</f>
+        <v>69</v>
+      </c>
+      <c r="E70" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E70</f>
+        <v>3D捕鱼奖池-游戏内显示奖池图标</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="6">
+        <f>'all_enter|所有按钮入口'!D71</f>
+        <v>70</v>
+      </c>
+      <c r="E71" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E71</f>
+        <v>3D捕鱼奖池-显示说明界面</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="6">
+        <f>'all_enter|所有按钮入口'!D72</f>
+        <v>71</v>
+      </c>
+      <c r="E72" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E72</f>
+        <v>3D捕鱼开炮送红包-场次2大厅显示</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="6">
+        <f>'all_enter|所有按钮入口'!D73</f>
+        <v>72</v>
+      </c>
+      <c r="E73" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E73</f>
+        <v>兑换按钮</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="6">
+        <f>'all_enter|所有按钮入口'!D74</f>
+        <v>73</v>
+      </c>
+      <c r="E74" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E74</f>
+        <v>boss来袭</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="6">
+        <f>'all_enter|所有按钮入口'!D75</f>
+        <v>74</v>
+      </c>
+      <c r="E75" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E75</f>
+        <v>活跃任务</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="6">
+        <f>'all_enter|所有按钮入口'!D76</f>
+        <v>75</v>
+      </c>
+      <c r="E76" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E76</f>
+        <v>3D捕鱼开炮送红包-场次3大厅显示</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="6">
+        <f>'all_enter|所有按钮入口'!D77</f>
+        <v>76</v>
+      </c>
+      <c r="E77" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E77</f>
+        <v>3D捕鱼开炮送红包-场次4大厅显示</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="6">
+        <f>'all_enter|所有按钮入口'!D78</f>
+        <v>77</v>
+      </c>
+      <c r="E78" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E78</f>
+        <v>3D捕鱼开炮送红包-场次5大厅显示</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="6">
+        <f>'all_enter|所有按钮入口'!D79</f>
+        <v>78</v>
+      </c>
+      <c r="E79" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E79</f>
+        <v>3D捕鱼开炮送红包-游戏内</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="6">
+        <f>'all_enter|所有按钮入口'!D80</f>
+        <v>79</v>
+      </c>
+      <c r="E80" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E80</f>
+        <v>炮台升级按钮</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="6">
+        <f>'all_enter|所有按钮入口'!D81</f>
+        <v>80</v>
+      </c>
+      <c r="E81" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E81</f>
+        <v>畅玩卡</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D82" s="6">
+        <f>'all_enter|所有按钮入口'!D82</f>
+        <v>81</v>
+      </c>
+      <c r="E82" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E82</f>
+        <v>3D捕鱼挑战任务</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="6">
+        <f>'all_enter|所有按钮入口'!D83</f>
+        <v>82</v>
+      </c>
+      <c r="E83" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E83</f>
+        <v>3D捕鱼游戏上方区域</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="6">
+        <f>'all_enter|所有按钮入口'!D84</f>
+        <v>83</v>
+      </c>
+      <c r="E84" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E84</f>
+        <v>师徒系统</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="6">
+        <f>'all_enter|所有按钮入口'!D85</f>
+        <v>84</v>
+      </c>
+      <c r="E85" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E85</f>
+        <v>全返礼包</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="6">
+        <f>'all_enter|所有按钮入口'!D86</f>
+        <v>85</v>
+      </c>
+      <c r="E86" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E86</f>
+        <v>签到</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_ios提审/game_enter_btn_config.xlsx
+++ b/config_ios提审/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="256">
   <si>
     <t>id|行号</t>
   </si>
@@ -1155,6 +1155,22 @@
   </si>
   <si>
     <t>85#36#26#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_zdkp",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼自动开炮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1968,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2051,6 +2067,17 @@
       </c>
       <c r="C6" s="6" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2170,13 +2197,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87:E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3649,6 +3676,23 @@
       </c>
       <c r="E86" s="6" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3864,7 +3908,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3930,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
